--- a/data/trans_orig/P14C18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01DDD1A-9251-4F7A-8F24-F7407405A7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A63225-21E7-41D4-B8CB-AD951A927CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48EF57F6-1600-4845-91E1-4852072BEC00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1C9BC2F-E5E4-4A85-A471-0EE964C26393}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
   <si>
     <t>Población según el tiempo de diagnóstico del mala circulación en 2015 (Tasa respuesta: 4,45%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>86,8%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,96%</t>
+    <t>17,37%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,73 +167,76 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>19,9%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
+    <t>7,78%</t>
+  </si>
+  <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,19 +251,19 @@
     <t>66,22%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>29,67%</t>
@@ -269,16 +272,16 @@
     <t>15,59%</t>
   </si>
   <si>
-    <t>47,06%</t>
+    <t>47,96%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
   </si>
   <si>
     <t>0%</t>
@@ -290,67 +293,61 @@
     <t>18,19%</t>
   </si>
   <si>
-    <t>46,22%</t>
+    <t>51,52%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>41,43%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>83,96%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>22,78%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>4,39%</t>
@@ -359,25 +356,25 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1606A222-0D83-47A4-AFB1-804585B41C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E62949E-B429-4AA1-920D-F56E53E0F0CE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1245,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1254,13 +1251,13 @@
         <v>3169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,7 +1313,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1328,13 +1325,13 @@
         <v>2684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1343,13 +1340,13 @@
         <v>9033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1358,13 +1355,13 @@
         <v>11717</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,13 +1376,13 @@
         <v>1132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1394,13 +1391,13 @@
         <v>2127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1409,13 +1406,13 @@
         <v>3259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,10 +1430,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1445,13 +1442,13 @@
         <v>2482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1460,13 +1457,13 @@
         <v>2482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,13 +1531,13 @@
         <v>63756</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -1549,13 +1546,13 @@
         <v>193641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -1564,10 +1561,10 @@
         <v>257397</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>95</v>
@@ -1588,10 +1585,10 @@
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -1600,13 +1597,13 @@
         <v>35556</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1615,13 +1612,13 @@
         <v>46467</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1633,13 @@
         <v>3429</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -1651,13 +1648,13 @@
         <v>16815</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -1666,13 +1663,13 @@
         <v>20243</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1725,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A63225-21E7-41D4-B8CB-AD951A927CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1239DACF-FDBB-4535-8789-588515504127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1C9BC2F-E5E4-4A85-A471-0EE964C26393}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFEB38D1-AAF4-459B-BD93-B73C480A596C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
-  <si>
-    <t>Población según el tiempo de diagnóstico del mala circulación en 2015 (Tasa respuesta: 4,45%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+  <si>
+    <t>Población según el tiempo de diagnóstico del mala circulación en 2016 (Tasa respuesta: 4,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>86,8%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,37%</t>
+    <t>18,03%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,76 +164,73 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>15,21%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>7,78%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,19 +245,19 @@
     <t>66,22%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>29,67%</t>
@@ -272,16 +266,16 @@
     <t>15,59%</t>
   </si>
   <si>
-    <t>47,96%</t>
+    <t>41,91%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>0%</t>
@@ -293,88 +287,91 @@
     <t>18,19%</t>
   </si>
   <si>
-    <t>51,52%</t>
+    <t>50,81%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>43,44%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>83,96%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E62949E-B429-4AA1-920D-F56E53E0F0CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB79AB7C-971D-48E0-BA98-650D682ABD31}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,13 +1042,13 @@
         <v>14592</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1066,13 +1063,13 @@
         <v>43839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -1081,13 +1078,13 @@
         <v>147855</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -1096,18 +1093,18 @@
         <v>191694</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1119,13 +1116,13 @@
         <v>23022</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -1134,13 +1131,13 @@
         <v>68065</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -1149,13 +1146,13 @@
         <v>91086</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,13 +1167,13 @@
         <v>6336</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -1185,13 +1182,13 @@
         <v>14365</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -1200,13 +1197,13 @@
         <v>20700</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,13 +1218,13 @@
         <v>1084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1236,13 +1233,13 @@
         <v>2085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1251,13 +1248,13 @@
         <v>3169</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,13 +1269,13 @@
         <v>30441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -1287,13 +1284,13 @@
         <v>84515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -1302,18 +1299,18 @@
         <v>114955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1325,13 +1322,13 @@
         <v>2684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1340,13 +1337,13 @@
         <v>9033</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1355,13 +1352,13 @@
         <v>11717</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,13 +1373,13 @@
         <v>1132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1391,13 +1388,13 @@
         <v>2127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1406,13 +1403,13 @@
         <v>3259</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,10 +1427,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1442,13 +1439,13 @@
         <v>2482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1457,13 +1454,13 @@
         <v>2482</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,13 +1475,13 @@
         <v>3816</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -1493,13 +1490,13 @@
         <v>13642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -1508,13 +1505,13 @@
         <v>17458</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,13 +1528,13 @@
         <v>63756</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -1546,13 +1543,13 @@
         <v>193641</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>231</v>
@@ -1561,13 +1558,13 @@
         <v>257397</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,10 +1579,10 @@
         <v>10911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>97</v>
@@ -1669,7 +1666,7 @@
         <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,13 +1681,13 @@
         <v>78095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>214</v>
@@ -1699,13 +1696,13 @@
         <v>246012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>292</v>
@@ -1714,18 +1711,18 @@
         <v>324107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
